--- a/result/without_base/12/arousal/s05_2.xlsx
+++ b/result/without_base/12/arousal/s05_2.xlsx
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.502499982714653</v>
+        <v>0.4874999970197678</v>
       </c>
       <c r="C2" t="n">
-        <v>41763.345703125</v>
+        <v>41731.861328125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.540000007911162</v>
+        <v>0.5028409118002112</v>
       </c>
       <c r="E2" t="n">
-        <v>41760.94140625</v>
+        <v>41731.70596590909</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4849999994039536</v>
+        <v>0.5575000047683716</v>
       </c>
       <c r="C3" t="n">
-        <v>41014.736328125</v>
+        <v>40992.611328125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4982954480431296</v>
+        <v>0.5479545376517556</v>
       </c>
       <c r="E3" t="n">
-        <v>41014.31463068182</v>
+        <v>40991.90198863636</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.612500011920929</v>
       </c>
       <c r="C4" t="n">
-        <v>40278.380859375</v>
+        <v>40242.09375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5726136348464272</v>
+        <v>0.5587499900297686</v>
       </c>
       <c r="E4" t="n">
-        <v>40277.37748579546</v>
+        <v>40242.03835227273</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5450000166893005</v>
+        <v>0.6074999868869781</v>
       </c>
       <c r="C5" t="n">
-        <v>39553.576171875</v>
+        <v>39506.88671875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5677272785793651</v>
+        <v>0.585340911691839</v>
       </c>
       <c r="E5" t="n">
-        <v>39551.78231534091</v>
+        <v>39505.7421875</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4774999916553497</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C6" t="n">
-        <v>38836.03125</v>
+        <v>38778.74609375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.516477262431925</v>
+        <v>0.5154545442624525</v>
       </c>
       <c r="E6" t="n">
-        <v>38835.609375</v>
+        <v>38778.49644886364</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5175000131130219</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C7" t="n">
-        <v>38129.04296875</v>
+        <v>38065.451171875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.556477281180295</v>
+        <v>0.5719318118962374</v>
       </c>
       <c r="E7" t="n">
-        <v>38127.30078125</v>
+        <v>38064.12251420454</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5200000107288361</v>
+        <v>0.4974999874830246</v>
       </c>
       <c r="C8" t="n">
-        <v>37427.771484375</v>
+        <v>37363.48046875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5626136335459623</v>
+        <v>0.5012499988079071</v>
       </c>
       <c r="E8" t="n">
-        <v>37426.97975852273</v>
+        <v>37363.07208806818</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5774999856948853</v>
       </c>
       <c r="C9" t="n">
-        <v>36742.02734375</v>
+        <v>36669.384765625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5912499969655817</v>
+        <v>0.5936363610354337</v>
       </c>
       <c r="E9" t="n">
-        <v>36741.07386363636</v>
+        <v>36668.55823863636</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5199999809265137</v>
+        <v>0.5874999761581421</v>
       </c>
       <c r="C10" t="n">
-        <v>36065.431640625</v>
+        <v>35986.548828125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5948863571340387</v>
+        <v>0.6145454590970819</v>
       </c>
       <c r="E10" t="n">
-        <v>36063.63139204546</v>
+        <v>35985.52130681818</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4850000143051147</v>
+        <v>0.5125000029802322</v>
       </c>
       <c r="C11" t="n">
-        <v>35398.291015625</v>
+        <v>35316.171875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6024999943646517</v>
+        <v>0.5740909088741649</v>
       </c>
       <c r="E11" t="n">
-        <v>35396.62748579546</v>
+        <v>35315.27414772727</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.512499988079071</v>
+        <v>0.5625</v>
       </c>
       <c r="C12" t="n">
-        <v>34742.17578125</v>
+        <v>34655.10546875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6084091013128107</v>
+        <v>0.6261363625526428</v>
       </c>
       <c r="E12" t="n">
-        <v>34740.34481534091</v>
+        <v>34654.30539772727</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5325000137090683</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C13" t="n">
-        <v>34096.10546875</v>
+        <v>34005.912109375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6296590891751376</v>
+        <v>0.6197727214206349</v>
       </c>
       <c r="E13" t="n">
-        <v>34094.71555397727</v>
+        <v>34004.86257102273</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.6074999868869781</v>
       </c>
       <c r="C14" t="n">
-        <v>33461.009765625</v>
+        <v>33367.017578125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6217045513066378</v>
+        <v>0.6343181891874834</v>
       </c>
       <c r="E14" t="n">
-        <v>33459.72798295454</v>
+        <v>33366.11115056818</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5724999904632568</v>
+        <v>0.6149999797344208</v>
       </c>
       <c r="C15" t="n">
-        <v>32834.26171875</v>
+        <v>32738.927734375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6163636391813104</v>
+        <v>0.6292045441540804</v>
       </c>
       <c r="E15" t="n">
-        <v>32833.46164772727</v>
+        <v>32737.94513494318</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5074999928474426</v>
+        <v>0.6225000023841858</v>
       </c>
       <c r="C16" t="n">
-        <v>32218.6982421875</v>
+        <v>32119.9267578125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.629431811246005</v>
+        <v>0.6602272662249479</v>
       </c>
       <c r="E16" t="n">
-        <v>32217.88636363636</v>
+        <v>32119.13813920454</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4950000047683716</v>
+        <v>0.6350000202655792</v>
       </c>
       <c r="C17" t="n">
-        <v>31614.03125</v>
+        <v>31512.2880859375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6369318257678639</v>
+        <v>0.6553409099578857</v>
       </c>
       <c r="E17" t="n">
-        <v>31612.66796875</v>
+        <v>31511.546875</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5474999845027924</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C18" t="n">
-        <v>31018.982421875</v>
+        <v>30914.703125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.650227281180295</v>
+        <v>0.651022732257843</v>
       </c>
       <c r="E18" t="n">
-        <v>31017.63210227273</v>
+        <v>30914.01935369318</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4299999922513962</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C19" t="n">
-        <v>30433.6845703125</v>
+        <v>30327.6728515625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6156818216497247</v>
+        <v>0.6493181748823686</v>
       </c>
       <c r="E19" t="n">
-        <v>30432.42684659091</v>
+        <v>30326.55877130682</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4975000023841858</v>
+        <v>0.5400000065565109</v>
       </c>
       <c r="C20" t="n">
-        <v>29858.2080078125</v>
+        <v>29750.3203125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6265909129923041</v>
+        <v>0.6594318151473999</v>
       </c>
       <c r="E20" t="n">
-        <v>29857.02254971591</v>
+        <v>29749.13813920454</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.5450000017881393</v>
       </c>
       <c r="C21" t="n">
-        <v>29292.203125</v>
+        <v>29182.5966796875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6551136374473572</v>
+        <v>0.6661363623358987</v>
       </c>
       <c r="E21" t="n">
-        <v>29291.28125</v>
+        <v>29181.54367897727</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.512499988079071</v>
+        <v>0.5224999934434891</v>
       </c>
       <c r="C22" t="n">
-        <v>28736.1865234375</v>
+        <v>28625.021484375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6562499891627919</v>
+        <v>0.6759090965444391</v>
       </c>
       <c r="E22" t="n">
-        <v>28735.232421875</v>
+        <v>28623.88565340909</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5824999809265137</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C23" t="n">
-        <v>28189.8857421875</v>
+        <v>28077.5625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6692045385187323</v>
+        <v>0.6473863558335737</v>
       </c>
       <c r="E23" t="n">
-        <v>28188.92169744318</v>
+        <v>28076.39666193182</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C24" t="n">
-        <v>27653.8857421875</v>
+        <v>27539.484375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6517045443708246</v>
+        <v>0.643409089608626</v>
       </c>
       <c r="E24" t="n">
-        <v>27652.26526988636</v>
+        <v>27538.06942471591</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5175000131130219</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C25" t="n">
-        <v>27125.455078125</v>
+        <v>27009.8759765625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6407954530282454</v>
+        <v>0.6779545491391962</v>
       </c>
       <c r="E25" t="n">
-        <v>27124.318359375</v>
+        <v>27008.69975142046</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4749999940395355</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="C26" t="n">
-        <v>26607.1748046875</v>
+        <v>26490.244140625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6596590876579285</v>
+        <v>0.6659090898253701</v>
       </c>
       <c r="E26" t="n">
-        <v>26605.84144176136</v>
+        <v>26489.19815340909</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="C27" t="n">
-        <v>26098.0458984375</v>
+        <v>25979.8359375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.656590916893699</v>
+        <v>0.6792045452378013</v>
       </c>
       <c r="E27" t="n">
-        <v>26097.03338068182</v>
+        <v>25978.75124289773</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5174999833106995</v>
+        <v>0.5625</v>
       </c>
       <c r="C28" t="n">
-        <v>25597.40234375</v>
+        <v>25478.4052734375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.674318178133531</v>
+        <v>0.6827272772789001</v>
       </c>
       <c r="E28" t="n">
-        <v>25596.234375</v>
+        <v>25477.39293323864</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5449999868869781</v>
+        <v>0.5824999809265137</v>
       </c>
       <c r="C29" t="n">
-        <v>25105.6650390625</v>
+        <v>24985.939453125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.693068184635856</v>
+        <v>0.688295456496152</v>
       </c>
       <c r="E29" t="n">
-        <v>25104.58078835227</v>
+        <v>24984.96342329546</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C30" t="n">
-        <v>24623.1318359375</v>
+        <v>24502.232421875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6943181807344611</v>
+        <v>0.7007954499938271</v>
       </c>
       <c r="E30" t="n">
-        <v>24621.85049715909</v>
+        <v>24501.28888494318</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="C31" t="n">
-        <v>24148.5810546875</v>
+        <v>24027.5966796875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6990909034555609</v>
+        <v>0.6770454482598738</v>
       </c>
       <c r="E31" t="n">
-        <v>24147.42915482954</v>
+        <v>24026.59818892046</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5649999976158142</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C32" t="n">
-        <v>23683.076171875</v>
+        <v>23561.2822265625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6768181865865533</v>
+        <v>0.6678409088741649</v>
       </c>
       <c r="E32" t="n">
-        <v>23681.92844460227</v>
+        <v>23560.08504971591</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5249999761581421</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C33" t="n">
-        <v>23225.23046875</v>
+        <v>23102.88671875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6921590891751376</v>
+        <v>0.7029545415531505</v>
       </c>
       <c r="E33" t="n">
-        <v>23224.14985795454</v>
+        <v>23101.79438920454</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4924999922513962</v>
+        <v>0.5125000029802322</v>
       </c>
       <c r="C34" t="n">
-        <v>22775.6962890625</v>
+        <v>22653.361328125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.69306819005446</v>
+        <v>0.6863636374473572</v>
       </c>
       <c r="E34" t="n">
-        <v>22774.66672585227</v>
+        <v>22652.19105113636</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.5275000035762787</v>
       </c>
       <c r="C35" t="n">
-        <v>22334.1396484375</v>
+        <v>22211.25</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6977272738109935</v>
+        <v>0.691477277062156</v>
       </c>
       <c r="E35" t="n">
-        <v>22333.20951704546</v>
+        <v>22210.36558948864</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5474999845027924</v>
       </c>
       <c r="C36" t="n">
-        <v>21900.79296875</v>
+        <v>21777.4716796875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6844318183985624</v>
+        <v>0.696704544804313</v>
       </c>
       <c r="E36" t="n">
-        <v>21899.85901988636</v>
+        <v>21776.67826704546</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5774999856948853</v>
       </c>
       <c r="C37" t="n">
-        <v>21475.13671875</v>
+        <v>21351.85546875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.675000011920929</v>
+        <v>0.6579545465382662</v>
       </c>
       <c r="E37" t="n">
-        <v>21474.21519886364</v>
+        <v>21351.20294744318</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C38" t="n">
-        <v>21057.3701171875</v>
+        <v>20933.77734375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7006818164478649</v>
+        <v>0.6971590952439741</v>
       </c>
       <c r="E38" t="n">
-        <v>21056.27769886364</v>
+        <v>20932.91228693182</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5174999982118607</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C39" t="n">
-        <v>20646.6630859375</v>
+        <v>20523.353515625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6936363632028754</v>
+        <v>0.697500001300465</v>
       </c>
       <c r="E39" t="n">
-        <v>20645.796875</v>
+        <v>20522.46360085227</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5524999797344208</v>
+        <v>0.5249999910593033</v>
       </c>
       <c r="C40" t="n">
-        <v>20243.693359375</v>
+        <v>20120.4169921875</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7031818194822832</v>
+        <v>0.6482954512942921</v>
       </c>
       <c r="E40" t="n">
-        <v>20242.71342329546</v>
+        <v>20119.64595170454</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5750000178813934</v>
+        <v>0.5874999761581421</v>
       </c>
       <c r="C41" t="n">
-        <v>19848.3388671875</v>
+        <v>19724.78125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6642045432871039</v>
+        <v>0.7095454660328951</v>
       </c>
       <c r="E41" t="n">
-        <v>19847.37819602273</v>
+        <v>19723.93785511364</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.4825000017881393</v>
       </c>
       <c r="C42" t="n">
-        <v>19459.5712890625</v>
+        <v>19336.794921875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6271590915593234</v>
+        <v>0.6452272805300626</v>
       </c>
       <c r="E42" t="n">
-        <v>19458.76864346591</v>
+        <v>19335.76899857954</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5800000131130219</v>
+        <v>0.5874999761581421</v>
       </c>
       <c r="C43" t="n">
-        <v>19078.0810546875</v>
+        <v>18954.9921875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6792045452378013</v>
+        <v>0.700681821866469</v>
       </c>
       <c r="E43" t="n">
-        <v>19077.14346590909</v>
+        <v>18954.17595880682</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.570000022649765</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="C44" t="n">
-        <v>18703.2890625</v>
+        <v>18580.8486328125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6846590963276949</v>
+        <v>0.7015909119085832</v>
       </c>
       <c r="E44" t="n">
-        <v>18702.50177556818</v>
+        <v>18580.07315340909</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.5125000029802322</v>
       </c>
       <c r="C45" t="n">
-        <v>18335.7275390625</v>
+        <v>18213.3779296875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6872727329080756</v>
+        <v>0.7085227261890065</v>
       </c>
       <c r="E45" t="n">
-        <v>18334.75088778409</v>
+        <v>18212.46821732954</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5625</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C46" t="n">
-        <v>17974.6875</v>
+        <v>17853.0087890625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7029545415531505</v>
+        <v>0.6744318170980974</v>
       </c>
       <c r="E46" t="n">
-        <v>17973.74147727273</v>
+        <v>17852.14701704546</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5525000095367432</v>
+        <v>0.5874999761581421</v>
       </c>
       <c r="C47" t="n">
-        <v>17620.43359375</v>
+        <v>17498.814453125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6901136311617765</v>
+        <v>0.6981818188320507</v>
       </c>
       <c r="E47" t="n">
-        <v>17619.35031960227</v>
+        <v>17497.98526278409</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5050000101327896</v>
+        <v>0.5575000047683716</v>
       </c>
       <c r="C48" t="n">
-        <v>17272.3798828125</v>
+        <v>17151.2646484375</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6990909034555609</v>
+        <v>0.6928409067067233</v>
       </c>
       <c r="E48" t="n">
-        <v>17271.39612926136</v>
+        <v>17150.427734375</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.5400000065565109</v>
       </c>
       <c r="C49" t="n">
-        <v>16930.634765625</v>
+        <v>16810.203125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6799999908967451</v>
+        <v>0.6689772660082037</v>
       </c>
       <c r="E49" t="n">
-        <v>16929.94637784091</v>
+        <v>16809.51455965909</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5675000250339508</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C50" t="n">
-        <v>16595.724609375</v>
+        <v>16475.78515625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6736363660205494</v>
+        <v>0.602954550222917</v>
       </c>
       <c r="E50" t="n">
-        <v>16594.72762784091</v>
+        <v>16475.05237926136</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5249999761581421</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C51" t="n">
-        <v>16267.09814453125</v>
+        <v>16146.73974609375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6639772707765753</v>
+        <v>0.7152272787961093</v>
       </c>
       <c r="E51" t="n">
-        <v>16265.99698153409</v>
+        <v>16145.99618252841</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1422,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4399999976158142</v>
+        <v>0.5624999850988388</v>
       </c>
       <c r="C52" t="n">
-        <v>15943.67529296875</v>
+        <v>15824.1962890625</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6318181807344611</v>
+        <v>0.7092045437205922</v>
       </c>
       <c r="E52" t="n">
-        <v>15942.80424360795</v>
+        <v>15823.50372869318</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1439,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4350000023841858</v>
+        <v>0.6149999797344208</v>
       </c>
       <c r="C53" t="n">
-        <v>15626.1455078125</v>
+        <v>15507.822265625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7017045454545454</v>
+        <v>0.7052272720770403</v>
       </c>
       <c r="E53" t="n">
-        <v>15625.27974076705</v>
+        <v>15507.12002840909</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1456,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5674999952316284</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C54" t="n">
-        <v>15315.32470703125</v>
+        <v>15197.13720703125</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6865909099578857</v>
+        <v>0.7121590971946716</v>
       </c>
       <c r="E54" t="n">
-        <v>15314.28036221591</v>
+        <v>15196.33238636364</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.489999994635582</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C55" t="n">
-        <v>15009.4423828125</v>
+        <v>14892.18701171875</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6832954558459196</v>
+        <v>0.7029545523903586</v>
       </c>
       <c r="E55" t="n">
-        <v>15008.52618963068</v>
+        <v>14891.51358309659</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1490,16 +1490,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.5300000011920929</v>
       </c>
       <c r="C56" t="n">
-        <v>14709.39208984375</v>
+        <v>14593.0615234375</v>
       </c>
       <c r="D56" t="n">
-        <v>0.687954539602453</v>
+        <v>0.7048863551833413</v>
       </c>
       <c r="E56" t="n">
-        <v>14708.5556640625</v>
+        <v>14592.25772372159</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5274999737739563</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="C57" t="n">
-        <v>14415.09375</v>
+        <v>14299.3017578125</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6902272701263428</v>
+        <v>0.6724999980493025</v>
       </c>
       <c r="E57" t="n">
-        <v>14414.29456676136</v>
+        <v>14298.76748934659</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1524,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5499999821186066</v>
+        <v>0.5724999904632568</v>
       </c>
       <c r="C58" t="n">
-        <v>14126.25341796875</v>
+        <v>14011.74658203125</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7018181790005077</v>
+        <v>0.6585227305238898</v>
       </c>
       <c r="E58" t="n">
-        <v>14125.39018110795</v>
+        <v>14011.05886008523</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="C59" t="n">
-        <v>13842.59375</v>
+        <v>13728.48779296875</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7060227339917963</v>
+        <v>0.7138636383143339</v>
       </c>
       <c r="E59" t="n">
-        <v>13841.75408380682</v>
+        <v>13727.82963423295</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1558,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4950000047683716</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C60" t="n">
-        <v>13564.43896484375</v>
+        <v>13451.0087890625</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6515909108248624</v>
+        <v>0.6912499937144193</v>
       </c>
       <c r="E60" t="n">
-        <v>13563.59392755682</v>
+        <v>13450.37801846591</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1575,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C61" t="n">
-        <v>13291.49853515625</v>
+        <v>13178.74755859375</v>
       </c>
       <c r="D61" t="n">
-        <v>0.660681816664609</v>
+        <v>0.6928409067067233</v>
       </c>
       <c r="E61" t="n">
-        <v>13290.62535511364</v>
+        <v>13178.2109375</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1592,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.502499982714653</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C62" t="n">
-        <v>13023.64453125</v>
+        <v>12911.50048828125</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6457954590970819</v>
+        <v>0.6667045571587302</v>
       </c>
       <c r="E62" t="n">
-        <v>13022.77325994318</v>
+        <v>12910.89364346591</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1609,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5900000035762787</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C63" t="n">
-        <v>12759.9619140625</v>
+        <v>12649.3359375</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7280681729316711</v>
+        <v>0.6849999915469777</v>
       </c>
       <c r="E63" t="n">
-        <v>12759.19513494318</v>
+        <v>12648.68723366477</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C64" t="n">
-        <v>12502.0078125</v>
+        <v>12391.93310546875</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6421590935100209</v>
+        <v>0.701931817965074</v>
       </c>
       <c r="E64" t="n">
-        <v>12501.60005326705</v>
+        <v>12391.34259588068</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1643,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5850000083446503</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C65" t="n">
-        <v>12248.48046875</v>
+        <v>12139.4326171875</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6961363608186896</v>
+        <v>0.6901136311617765</v>
       </c>
       <c r="E65" t="n">
-        <v>12247.9111328125</v>
+        <v>12138.90962357955</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5499999821186066</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="C66" t="n">
-        <v>12000.060546875</v>
+        <v>11891.98095703125</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6996590982783925</v>
+        <v>0.6761363690549677</v>
       </c>
       <c r="E66" t="n">
-        <v>11999.29891690341</v>
+        <v>11891.51313920455</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5424999892711639</v>
+        <v>0.5824999809265137</v>
       </c>
       <c r="C67" t="n">
-        <v>11755.91748046875</v>
+        <v>11648.7431640625</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6945454532449896</v>
+        <v>0.6973863677545027</v>
       </c>
       <c r="E67" t="n">
-        <v>11755.28817471591</v>
+        <v>11648.25621448864</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5825000107288361</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C68" t="n">
-        <v>11516.81884765625</v>
+        <v>11410.41259765625</v>
       </c>
       <c r="D68" t="n">
-        <v>0.675113629211079</v>
+        <v>0.6757954575798728</v>
       </c>
       <c r="E68" t="n">
-        <v>11516.3623046875</v>
+        <v>11409.84792258523</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1711,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4574999958276749</v>
+        <v>0.5150000005960464</v>
       </c>
       <c r="C69" t="n">
-        <v>11282.49560546875</v>
+        <v>11176.84326171875</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6010227420113303</v>
+        <v>0.6272727305238898</v>
       </c>
       <c r="E69" t="n">
-        <v>11281.68368252841</v>
+        <v>11176.32768110795</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5625</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C70" t="n">
-        <v>11051.67333984375</v>
+        <v>10947.0068359375</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6797727238048207</v>
+        <v>0.6754545406861738</v>
       </c>
       <c r="E70" t="n">
-        <v>11050.87588778409</v>
+        <v>10946.46235795455</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4975000023841858</v>
+        <v>0.5724999904632568</v>
       </c>
       <c r="C71" t="n">
-        <v>10825.52880859375</v>
+        <v>10721.8818359375</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6792045452378013</v>
+        <v>0.6812499978325584</v>
       </c>
       <c r="E71" t="n">
-        <v>10824.72381036932</v>
+        <v>10721.34588068182</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1762,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5474999845027924</v>
+        <v>0.6124999821186066</v>
       </c>
       <c r="C72" t="n">
-        <v>10603.49755859375</v>
+        <v>10501.39013671875</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6671590967611833</v>
+        <v>0.6431818225167014</v>
       </c>
       <c r="E72" t="n">
-        <v>10602.85680042614</v>
+        <v>10501.03577769886</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1779,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="C73" t="n">
-        <v>10385.89892578125</v>
+        <v>10284.22265625</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6687499989162792</v>
+        <v>0.6781818162311207</v>
       </c>
       <c r="E73" t="n">
-        <v>10385.31773792614</v>
+        <v>10283.74280894886</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1796,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5599999874830246</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C74" t="n">
-        <v>10171.99462890625</v>
+        <v>10071.482421875</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7019318233836781</v>
+        <v>0.6954545487057079</v>
       </c>
       <c r="E74" t="n">
-        <v>10171.46670809659</v>
+        <v>10071.08806818182</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1813,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4974999874830246</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C75" t="n">
-        <v>9962.716796875</v>
+        <v>9862.99267578125</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6521590948104858</v>
+        <v>0.6918181777000427</v>
       </c>
       <c r="E75" t="n">
-        <v>9962.23544034091</v>
+        <v>9862.58309659091</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1833,13 +1833,13 @@
         <v>0.5575000047683716</v>
       </c>
       <c r="C76" t="n">
-        <v>9757.61181640625</v>
+        <v>9658.38037109375</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6361363692717119</v>
+        <v>0.6862499984827909</v>
       </c>
       <c r="E76" t="n">
-        <v>9757.073419744318</v>
+        <v>9658.004172585228</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6149999797344208</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C77" t="n">
-        <v>9555.533203125</v>
+        <v>9457.953125</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6773863597349687</v>
+        <v>0.6760227246717974</v>
       </c>
       <c r="E77" t="n">
-        <v>9555.05859375</v>
+        <v>9457.482776988636</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5250000059604645</v>
+        <v>0.612500011920929</v>
       </c>
       <c r="C78" t="n">
-        <v>9358.06494140625</v>
+        <v>9261.0146484375</v>
       </c>
       <c r="D78" t="n">
-        <v>0.607045444575223</v>
+        <v>0.6884090846235101</v>
       </c>
       <c r="E78" t="n">
-        <v>9357.556196732954</v>
+        <v>9260.6123046875</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1881,16 +1881,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.6175000071525574</v>
       </c>
       <c r="C79" t="n">
-        <v>9163.99609375</v>
+        <v>9068.1396484375</v>
       </c>
       <c r="D79" t="n">
-        <v>0.669886361468922</v>
+        <v>0.6588636419989846</v>
       </c>
       <c r="E79" t="n">
-        <v>9163.441938920454</v>
+        <v>9067.756036931818</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="C80" t="n">
-        <v>8973.5537109375</v>
+        <v>8878.8046875</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6578409075737</v>
+        <v>0.6859090978449042</v>
       </c>
       <c r="E80" t="n">
-        <v>8973.091086647728</v>
+        <v>8878.29989346591</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1918,13 +1918,13 @@
         <v>0.5550000071525574</v>
       </c>
       <c r="C81" t="n">
-        <v>8786.95458984375</v>
+        <v>8693.09912109375</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6537500078027899</v>
+        <v>0.6142045422033831</v>
       </c>
       <c r="E81" t="n">
-        <v>8786.52938565341</v>
+        <v>8692.735884232954</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,76 +1962,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.008620689655172414</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.008620689655172414</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008064516129032258</v>
+        <v>0.02419354838709677</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008064516129032258</v>
+        <v>0.02419354838709677</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.04032258064516129</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.04032258064516129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.04838709677419355</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2039,10 +2039,10 @@
         <v>0.06896551724137931</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.04838709677419355</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2050,29 +2050,29 @@
         <v>0.06896551724137931</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07258064516129033</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07258064516129033</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C12" t="n">
         <v>0.08064516129032258</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.103448275862069</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C13" t="n">
         <v>0.08064516129032258</v>
@@ -2091,13 +2091,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.103448275862069</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08870967741935484</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2105,10 +2105,10 @@
         <v>0.1120689655172414</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08870967741935484</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2116,10 +2116,10 @@
         <v>0.1120689655172414</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.1209677419354839</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2127,10 +2127,10 @@
         <v>0.1206896551724138</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.1209677419354839</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2138,450 +2138,450 @@
         <v>0.1206896551724138</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1048387096774194</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1048387096774194</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.1693548387096774</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.146551724137931</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.1693548387096774</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.146551724137931</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1774193548387097</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1551724137931035</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1774193548387097</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1551724137931035</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1693548387096774</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1810344827586207</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1693548387096774</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1810344827586207</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.2016129032258064</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1982758620689655</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.2016129032258064</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1982758620689655</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2096774193548387</v>
+        <v>0.2822580645161291</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2096774193548387</v>
+        <v>0.2822580645161291</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C30" t="n">
-        <v>0.217741935483871</v>
+        <v>0.3064516129032258</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2155172413793103</v>
+        <v>0.2327586206896552</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217741935483871</v>
+        <v>0.3064516129032258</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2155172413793103</v>
+        <v>0.2327586206896552</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.3145161290322581</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2241379310344828</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.3145161290322581</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2241379310344828</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2419354838709677</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2327586206896552</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2419354838709677</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2327586206896552</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2741935483870968</v>
+        <v>0.3387096774193548</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.3017241379310345</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2741935483870968</v>
+        <v>0.3387096774193548</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.3017241379310345</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2822580645161291</v>
+        <v>0.3467741935483871</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2586206896551724</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2822580645161291</v>
+        <v>0.3467741935483871</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2586206896551724</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.3629032258064516</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2672413793103448</v>
+        <v>0.3362068965517241</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.3629032258064516</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2672413793103448</v>
+        <v>0.3362068965517241</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3064516129032258</v>
+        <v>0.3790322580645161</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2758620689655172</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3064516129032258</v>
+        <v>0.3790322580645161</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2758620689655172</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3306451612903226</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.2844827586206897</v>
+        <v>0.353448275862069</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3306451612903226</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.2844827586206897</v>
+        <v>0.353448275862069</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3467741935483871</v>
+        <v>0.3951612903225806</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3275862068965517</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3467741935483871</v>
+        <v>0.3951612903225806</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3275862068965517</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3629032258064516</v>
+        <v>0.4032258064516129</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3362068965517241</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3629032258064516</v>
+        <v>0.4032258064516129</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3362068965517241</v>
+        <v>0.3879310344827586</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3709677419354839</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3620689655172414</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3709677419354839</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3620689655172414</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.4435483870967742</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3879310344827586</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.4435483870967742</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3879310344827586</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4596774193548387</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.396551724137931</v>
+        <v>0.4224137931034483</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4596774193548387</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.396551724137931</v>
+        <v>0.4224137931034483</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4677419354838709</v>
+        <v>0.4758064516129032</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4051724137931034</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4677419354838709</v>
+        <v>0.4758064516129032</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4051724137931034</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4758064516129032</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2589,10 +2589,10 @@
         <v>0.4396551724137931</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4758064516129032</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2600,76 +2600,76 @@
         <v>0.4396551724137931</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4919354838709677</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.456896551724138</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4919354838709677</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.456896551724138</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5725806451612904</v>
+        <v>0.5080645161290323</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4655172413793103</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5725806451612904</v>
+        <v>0.5080645161290323</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4655172413793103</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5967741935483871</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4913793103448276</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5967741935483871</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4913793103448276</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.5241935483870968</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2677,10 +2677,10 @@
         <v>0.5086206896551724</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.5241935483870968</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2688,471 +2688,669 @@
         <v>0.5086206896551724</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6209677419354839</v>
+        <v>0.5403225806451613</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6209677419354839</v>
+        <v>0.5403225806451613</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.5645161290322581</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5258620689655172</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.5645161290322581</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5258620689655172</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6532258064516129</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5431034482758621</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6532258064516129</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5431034482758621</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6693548387096774</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5775862068965517</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6693548387096774</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.5775862068965517</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6854838709677419</v>
+        <v>0.6209677419354839</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6120689655172413</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6854838709677419</v>
+        <v>0.6209677419354839</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6120689655172413</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6290322580645161</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6379310344827587</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6290322580645161</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6379310344827587</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C80" t="n">
-        <v>0.75</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6637931034482759</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C81" t="n">
-        <v>0.75</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6637931034482759</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C82" t="n">
-        <v>0.782258064516129</v>
+        <v>0.6693548387096774</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6724137931034483</v>
+        <v>0.6293103448275862</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C83" t="n">
-        <v>0.782258064516129</v>
+        <v>0.6693548387096774</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.6724137931034483</v>
+        <v>0.6293103448275862</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8145161290322581</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6810344827586207</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8145161290322581</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.6810344827586207</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8225806451612904</v>
+        <v>0.6854838709677419</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7413793103448276</v>
+        <v>0.6810344827586207</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8225806451612904</v>
+        <v>0.6854838709677419</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7413793103448276</v>
+        <v>0.6810344827586207</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.6935483870967742</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.8103448275862069</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.6935483870967742</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8103448275862069</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8467741935483871</v>
+        <v>0.7016129032258065</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.8189655172413793</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8467741935483871</v>
+        <v>0.7016129032258065</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.8189655172413793</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8629032258064516</v>
+        <v>0.717741935483871</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.7327586206896551</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8629032258064516</v>
+        <v>0.717741935483871</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.7327586206896551</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.7338709677419355</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.8362068965517241</v>
+        <v>0.75</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.7338709677419355</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.8362068965517241</v>
+        <v>0.75</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8951612903225806</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.8448275862068966</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8951612903225806</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8448275862068966</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9112903225806451</v>
+        <v>0.7580645161290323</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.853448275862069</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9112903225806451</v>
+        <v>0.7580645161290323</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.853448275862069</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.896551724137931</v>
+        <v>0.7844827586206896</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.896551724137931</v>
+        <v>0.7844827586206896</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9274193548387096</v>
+        <v>0.8306451612903226</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.9224137931034483</v>
+        <v>0.8189655172413793</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9274193548387096</v>
+        <v>0.8306451612903226</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.9224137931034483</v>
+        <v>0.8189655172413793</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9435483870967742</v>
+        <v>0.8387096774193549</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.9741379310344828</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9435483870967742</v>
+        <v>0.8387096774193549</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.9741379310344828</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.8790322580645161</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.8362068965517241</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.8790322580645161</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.8362068965517241</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9758064516129032</v>
+        <v>0.8870967741935484</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5464404894327031</v>
+        <v>0.5248887652947719</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9758064516129032</v>
+        <v>0.8870967741935484</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.8951612903225806</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="n">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.8951612903225806</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="n">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9112903225806451</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>0.896551724137931</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9112903225806451</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>0.896551724137931</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9193548387096774</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>0.9051724137931034</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9193548387096774</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.9051724137931034</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.9224137931034483</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.9224137931034483</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9435483870967742</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9435483870967742</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0.9482758620689655</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>0.9482758620689655</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="n">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="n">
+        <v>0.9913793103448276</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9919354838709677</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="n">
         <v>1</v>
       </c>
-      <c r="B110" t="n">
-        <v>0.5464404894327031</v>
-      </c>
-      <c r="C110" t="n">
+      <c r="B127" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9919354838709677</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="n">
+        <v>1</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.5248887652947719</v>
+      </c>
+      <c r="C128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3167,7 +3365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3191,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3202,7 +3400,7 @@
         <v>0.008064516129032258</v>
       </c>
       <c r="B3" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3210,233 +3408,233 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.02419354838709677</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="B4" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.008620689655172414</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.02419354838709677</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="B5" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.008620689655172414</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="B6" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="B7" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02586206896551724</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.0564516129032258</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="B8" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02586206896551724</v>
+        <v>0.05172413793103448</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.0564516129032258</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="B9" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07758620689655173</v>
+        <v>0.05172413793103448</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.07258064516129033</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="B10" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07758620689655173</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.07258064516129033</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="B11" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C11" t="n">
-        <v>0.103448275862069</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.08064516129032258</v>
+        <v>0.0564516129032258</v>
       </c>
       <c r="B12" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C12" t="n">
-        <v>0.103448275862069</v>
+        <v>0.07758620689655173</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.08064516129032258</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="B13" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C13" t="n">
-        <v>0.146551724137931</v>
+        <v>0.07758620689655173</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.08870967741935484</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="B14" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C14" t="n">
-        <v>0.146551724137931</v>
+        <v>0.09482758620689655</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.08870967741935484</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="B15" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1551724137931035</v>
+        <v>0.09482758620689655</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1048387096774194</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="B16" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1551724137931035</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1048387096774194</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="B17" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1637931034482759</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="B18" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1637931034482759</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="B19" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1370967741935484</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="B20" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.1551724137931035</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1370967741935484</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="B21" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1810344827586207</v>
+        <v>0.1551724137931035</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1532258064516129</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="B22" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1810344827586207</v>
+        <v>0.1637931034482759</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1532258064516129</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="B23" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.1637931034482759</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="B24" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.1724137931034483</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3444,955 +3642,1153 @@
         <v>0.1612903225806452</v>
       </c>
       <c r="B25" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2586206896551724</v>
+        <v>0.1724137931034483</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1774193548387097</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="B26" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2586206896551724</v>
+        <v>0.1810344827586207</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1774193548387097</v>
+        <v>0.1693548387096774</v>
       </c>
       <c r="B27" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3189655172413793</v>
+        <v>0.1810344827586207</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1854838709677419</v>
+        <v>0.1693548387096774</v>
       </c>
       <c r="B28" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3189655172413793</v>
+        <v>0.2155172413793103</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1854838709677419</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="B29" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3275862068965517</v>
+        <v>0.2155172413793103</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.217741935483871</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="B30" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3275862068965517</v>
+        <v>0.2241379310344828</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.217741935483871</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="B31" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3362068965517241</v>
+        <v>0.2241379310344828</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.25</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="B32" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3362068965517241</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.25</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="B33" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3620689655172414</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="B34" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3620689655172414</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="B35" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3879310344827586</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.3145161290322581</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="B36" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3879310344827586</v>
+        <v>0.2672413793103448</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.3145161290322581</v>
+        <v>0.2822580645161291</v>
       </c>
       <c r="B37" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4224137931034483</v>
+        <v>0.2672413793103448</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.3306451612903226</v>
+        <v>0.2822580645161291</v>
       </c>
       <c r="B38" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4224137931034483</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.3306451612903226</v>
+        <v>0.2983870967741936</v>
       </c>
       <c r="B39" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3467741935483871</v>
+        <v>0.2983870967741936</v>
       </c>
       <c r="B40" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.293103448275862</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3467741935483871</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="B41" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4741379310344828</v>
+        <v>0.293103448275862</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="B42" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4741379310344828</v>
+        <v>0.3189655172413793</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3145161290322581</v>
       </c>
       <c r="B43" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.3189655172413793</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3790322580645161</v>
+        <v>0.3145161290322581</v>
       </c>
       <c r="B44" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3790322580645161</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="B45" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4913793103448276</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="B46" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4913793103448276</v>
+        <v>0.3706896551724138</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.3306451612903226</v>
       </c>
       <c r="B47" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.3706896551724138</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.4032258064516129</v>
+        <v>0.3306451612903226</v>
       </c>
       <c r="B48" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.396551724137931</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.4032258064516129</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="B49" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5344827586206896</v>
+        <v>0.396551724137931</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.4274193548387097</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="B50" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5344827586206896</v>
+        <v>0.4137931034482759</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.4274193548387097</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="B51" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5431034482758621</v>
+        <v>0.4137931034482759</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.5080645161290323</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="B52" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5431034482758621</v>
+        <v>0.4310344827586207</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.5080645161290323</v>
+        <v>0.3790322580645161</v>
       </c>
       <c r="B53" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5603448275862069</v>
+        <v>0.4310344827586207</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.5241935483870968</v>
+        <v>0.3790322580645161</v>
       </c>
       <c r="B54" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5603448275862069</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.5241935483870968</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="B55" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5948275862068966</v>
+        <v>0.4482758620689655</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.532258064516129</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="B56" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5948275862068966</v>
+        <v>0.456896551724138</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.532258064516129</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="B57" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C57" t="n">
-        <v>0.603448275862069</v>
+        <v>0.456896551724138</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="B58" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C58" t="n">
-        <v>0.603448275862069</v>
+        <v>0.4655172413793103</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="B59" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6120689655172413</v>
+        <v>0.4655172413793103</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="B60" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6120689655172413</v>
+        <v>0.4741379310344828</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.4596774193548387</v>
       </c>
       <c r="B61" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6379310344827587</v>
+        <v>0.4741379310344828</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.6290322580645161</v>
+        <v>0.4596774193548387</v>
       </c>
       <c r="B62" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6379310344827587</v>
+        <v>0.4913793103448276</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.6290322580645161</v>
+        <v>0.4758064516129032</v>
       </c>
       <c r="B63" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6637931034482759</v>
+        <v>0.4913793103448276</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.6370967741935484</v>
+        <v>0.4758064516129032</v>
       </c>
       <c r="B64" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6637931034482759</v>
+        <v>0.5086206896551724</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.6370967741935484</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="B65" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6724137931034483</v>
+        <v>0.5086206896551724</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.6532258064516129</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="B66" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6724137931034483</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.6532258064516129</v>
+        <v>0.4919354838709677</v>
       </c>
       <c r="B67" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7155172413793104</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.6693548387096774</v>
+        <v>0.4919354838709677</v>
       </c>
       <c r="B68" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7155172413793104</v>
+        <v>0.5344827586206896</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.6693548387096774</v>
+        <v>0.5</v>
       </c>
       <c r="B69" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.5344827586206896</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6935483870967742</v>
+        <v>0.5</v>
       </c>
       <c r="B70" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.5603448275862069</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6935483870967742</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="B71" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7327586206896551</v>
+        <v>0.5603448275862069</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="B72" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7327586206896551</v>
+        <v>0.5689655172413793</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.5241935483870968</v>
       </c>
       <c r="B73" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7413793103448276</v>
+        <v>0.5689655172413793</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.717741935483871</v>
+        <v>0.5241935483870968</v>
       </c>
       <c r="B74" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7413793103448276</v>
+        <v>0.5775862068965517</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.717741935483871</v>
+        <v>0.5403225806451613</v>
       </c>
       <c r="B75" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.5775862068965517</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.7258064516129032</v>
+        <v>0.5403225806451613</v>
       </c>
       <c r="B76" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.5862068965517241</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.7258064516129032</v>
+        <v>0.5564516129032258</v>
       </c>
       <c r="B77" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7672413793103449</v>
+        <v>0.5862068965517241</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7580645161290323</v>
+        <v>0.5564516129032258</v>
       </c>
       <c r="B78" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7672413793103449</v>
+        <v>0.603448275862069</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7580645161290323</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="B79" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7758620689655172</v>
+        <v>0.603448275862069</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="B80" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7758620689655172</v>
+        <v>0.6120689655172413</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.5967741935483871</v>
       </c>
       <c r="B81" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7844827586206896</v>
+        <v>0.6120689655172413</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.782258064516129</v>
+        <v>0.5967741935483871</v>
       </c>
       <c r="B82" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7844827586206896</v>
+        <v>0.6206896551724138</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.782258064516129</v>
+        <v>0.6048387096774194</v>
       </c>
       <c r="B83" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.6206896551724138</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7903225806451613</v>
+        <v>0.6048387096774194</v>
       </c>
       <c r="B84" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.646551724137931</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7903225806451613</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="B85" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8017241379310345</v>
+        <v>0.646551724137931</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="B86" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8017241379310345</v>
+        <v>0.6551724137931034</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.6209677419354839</v>
       </c>
       <c r="B87" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8189655172413793</v>
+        <v>0.6551724137931034</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.8306451612903226</v>
+        <v>0.6209677419354839</v>
       </c>
       <c r="B88" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8189655172413793</v>
+        <v>0.6637931034482759</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.8306451612903226</v>
+        <v>0.6370967741935484</v>
       </c>
       <c r="B89" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8448275862068966</v>
+        <v>0.6637931034482759</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.6370967741935484</v>
       </c>
       <c r="B90" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8448275862068966</v>
+        <v>0.6724137931034483</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.6532258064516129</v>
       </c>
       <c r="B91" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C91" t="n">
-        <v>0.853448275862069</v>
+        <v>0.6724137931034483</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.8548387096774194</v>
+        <v>0.6532258064516129</v>
       </c>
       <c r="B92" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C92" t="n">
-        <v>0.853448275862069</v>
+        <v>0.6982758620689655</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.8548387096774194</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="B93" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.6982758620689655</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8951612903225806</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="B94" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.7068965517241379</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.8951612903225806</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="B95" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8793103448275862</v>
+        <v>0.7068965517241379</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="B96" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8793103448275862</v>
+        <v>0.7241379310344828</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.6854838709677419</v>
       </c>
       <c r="B97" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8879310344827587</v>
+        <v>0.7241379310344828</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.9112903225806451</v>
+        <v>0.6854838709677419</v>
       </c>
       <c r="B98" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8879310344827587</v>
+        <v>0.7672413793103449</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.9112903225806451</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="B99" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C99" t="n">
-        <v>0.896551724137931</v>
+        <v>0.7672413793103449</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="B100" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C100" t="n">
-        <v>0.896551724137931</v>
+        <v>0.7758620689655172</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.717741935483871</v>
       </c>
       <c r="B101" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9051724137931034</v>
+        <v>0.7758620689655172</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.9274193548387096</v>
+        <v>0.717741935483871</v>
       </c>
       <c r="B102" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9051724137931034</v>
+        <v>0.7844827586206896</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.9274193548387096</v>
+        <v>0.7983870967741935</v>
       </c>
       <c r="B103" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.7844827586206896</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.7983870967741935</v>
       </c>
       <c r="B104" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.8275862068965517</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="B105" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9482758620689655</v>
+        <v>0.8275862068965517</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="B106" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9482758620689655</v>
+        <v>0.853448275862069</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="B107" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.853448275862069</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9919354838709677</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="B108" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.8620689655172413</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9919354838709677</v>
+        <v>0.8306451612903226</v>
       </c>
       <c r="B109" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.8620689655172413</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>0.8306451612903226</v>
       </c>
       <c r="B110" t="n">
-        <v>0.546440489432703</v>
+        <v>0.524888765294772</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.8706896551724138</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
+        <v>0.8387096774193549</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.8706896551724138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="n">
+        <v>0.8387096774193549</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.8793103448275862</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>0.8790322580645161</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.8793103448275862</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>0.8790322580645161</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.8879310344827587</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>0.8870967741935484</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.8879310344827587</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.8870967741935484</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9051724137931034</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.9193548387096774</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9051724137931034</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.9193548387096774</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9137931034482759</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9137931034482759</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9396551724137931</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="n">
+        <v>0.9596774193548387</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9396551724137931</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="n">
+        <v>0.9596774193548387</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9568965517241379</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="n">
+        <v>0.9758064516129032</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9568965517241379</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="n">
+        <v>0.9758064516129032</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="n">
+        <v>0.9919354838709677</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="n">
+        <v>0.9919354838709677</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C128" t="n">
         <v>1</v>
       </c>
-      <c r="B111" t="n">
-        <v>0.546440489432703</v>
-      </c>
-      <c r="C111" t="n">
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="n">
+        <v>1</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.524888765294772</v>
+      </c>
+      <c r="C129" t="n">
         <v>1</v>
       </c>
     </row>
